--- a/documentation/APIs.xlsx
+++ b/documentation/APIs.xlsx
@@ -24,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Args:</t>
-  </si>
-  <si>
-    <t>Input format:</t>
-  </si>
-  <si>
-    <t>Returns:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>Probable use level</t>
-  </si>
-  <si>
     <t>ACCESSION_SEARCH</t>
   </si>
   <si>
@@ -89,12 +74,6 @@
     <t>1 array of product names</t>
   </si>
   <si>
-    <t>SEARCH_RESULT</t>
-  </si>
-  <si>
-    <t>Accession number</t>
-  </si>
-  <si>
     <t>2 arrays, 1: list of accessions and 2: list of corresponding concatenated geneID, Product name and chromosome location</t>
   </si>
   <si>
@@ -168,6 +147,60 @@
   </si>
   <si>
     <t>Concatenates all of the protein sequences</t>
+  </si>
+  <si>
+    <t>top for middle</t>
+  </si>
+  <si>
+    <t>middle for top</t>
+  </si>
+  <si>
+    <t>middle for bottom</t>
+  </si>
+  <si>
+    <t>Uses DNA_sequence</t>
+  </si>
+  <si>
+    <t>Probable use levels</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Input format</t>
+  </si>
+  <si>
+    <t>Args</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SQL query on loci table, bridgeing chromosome locationto retreive location name</t>
+  </si>
+  <si>
+    <t>SQL query on loci table retreiving GeneID / GI numer</t>
+  </si>
+  <si>
+    <t>SQL query on loci table retreiving CDS_translated</t>
+  </si>
+  <si>
+    <t>SQL query on loci table retreiving DNA_sequence</t>
+  </si>
+  <si>
+    <t>INTRON-EXON-RESTRICTION_SITE_STRINGS</t>
+  </si>
+  <si>
+    <t>Uses CHROMOSOME_LOCATION,GENE_ID,PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>Accession numbers</t>
+  </si>
+  <si>
+    <t>1 array</t>
+  </si>
+  <si>
+    <t>SEARCH_RESULTS</t>
   </si>
 </sst>
 </file>
@@ -206,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -214,69 +247,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,285 +545,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="54.90625" customWidth="1"/>
+    <col min="5" max="6" width="61.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/documentation/APIs.xlsx
+++ b/documentation/APIs.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Birkbeck\Biocomp2\Project\Biocomp2Project\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>notes</t>
   </si>
@@ -41,42 +36,9 @@
     <t>Array of Accession numbers</t>
   </si>
   <si>
-    <t>RESTRICT</t>
-  </si>
-  <si>
-    <t>Sequence of the restriction site, accession</t>
-  </si>
-  <si>
     <t>1 string</t>
   </si>
   <si>
-    <t>2 arrays  1 of start positions, 1 of end positions</t>
-  </si>
-  <si>
-    <t>CHROMOSOME_LOCATION</t>
-  </si>
-  <si>
-    <t>accession</t>
-  </si>
-  <si>
-    <t>1 array of chromosome locations</t>
-  </si>
-  <si>
-    <t>GENE_ID</t>
-  </si>
-  <si>
-    <t>1 array of gene IDs</t>
-  </si>
-  <si>
-    <t>PRODUCT_NAME</t>
-  </si>
-  <si>
-    <t>1 array of product names</t>
-  </si>
-  <si>
-    <t>2 arrays, 1: list of accessions and 2: list of corresponding concatenated geneID, Product name and chromosome location</t>
-  </si>
-  <si>
     <t>DNA_SEQUENCE</t>
   </si>
   <si>
@@ -92,30 +54,18 @@
     <t>EXONS_POSITIONS</t>
   </si>
   <si>
-    <t>2 arrays one of start 1 of end positions</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
     <t>INTRON-EXON_STRINGS</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
     <t>CODING_DNA</t>
   </si>
   <si>
-    <t>String of the compete coding DNA</t>
-  </si>
-  <si>
-    <t>Uses String of  DNA, protein sequence</t>
-  </si>
-  <si>
     <t>CODON_FREQ</t>
   </si>
   <si>
@@ -140,9 +90,6 @@
     <t>Concatenation of all the coding DNA</t>
   </si>
   <si>
-    <t>Uses coding DNA</t>
-  </si>
-  <si>
     <t>ALL_Protien</t>
   </si>
   <si>
@@ -158,9 +105,6 @@
     <t>middle for bottom</t>
   </si>
   <si>
-    <t>Uses DNA_sequence</t>
-  </si>
-  <si>
     <t>Probable use levels</t>
   </si>
   <si>
@@ -176,31 +120,82 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SQL query on loci table, bridgeing chromosome locationto retreive location name</t>
-  </si>
-  <si>
-    <t>SQL query on loci table retreiving GeneID / GI numer</t>
-  </si>
-  <si>
     <t>SQL query on loci table retreiving CDS_translated</t>
   </si>
   <si>
     <t>SQL query on loci table retreiving DNA_sequence</t>
   </si>
   <si>
-    <t>INTRON-EXON-RESTRICTION_SITE_STRINGS</t>
-  </si>
-  <si>
-    <t>Uses CHROMOSOME_LOCATION,GENE_ID,PRODUCT_NAME</t>
-  </si>
-  <si>
-    <t>Accession numbers</t>
-  </si>
-  <si>
-    <t>1 array</t>
-  </si>
-  <si>
     <t>SEARCH_RESULTS</t>
+  </si>
+  <si>
+    <t>1 hash: keys: list of accessions and values: list of corresponding concatenated geneID, Product name and chromosome location</t>
+  </si>
+  <si>
+    <t>PRODUCT, location,id</t>
+  </si>
+  <si>
+    <t>1 array of concatenated product names, id and location</t>
+  </si>
+  <si>
+    <t>accessions array</t>
+  </si>
+  <si>
+    <t>DNA sequence</t>
+  </si>
+  <si>
+    <t>RESTRICTion Enzymes</t>
+  </si>
+  <si>
+    <t>1 hash and 1 string</t>
+  </si>
+  <si>
+    <t>hash of exons position and string with dna sequence</t>
+  </si>
+  <si>
+    <t>hash or array with alternate intron/exons</t>
+  </si>
+  <si>
+    <t>Coding sequence and amino acids sequence</t>
+  </si>
+  <si>
+    <t>1 string of the protein sequence</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQL query and exons length calculation</t>
+  </si>
+  <si>
+    <t>full sequence string and hash of exons position</t>
+  </si>
+  <si>
+    <t>String of the compete coding DNA (concatenated exons)</t>
+  </si>
+  <si>
+    <t>2 arrays; 1 accession array, 1 array with concatenated id, product and loc</t>
+  </si>
+  <si>
+    <t>2 arrays</t>
+  </si>
+  <si>
+    <t>Connects the 2 sql queries above</t>
+  </si>
+  <si>
+    <t>accession clicked</t>
+  </si>
+  <si>
+    <t>1 hash: keys: exon starts, values: exons length</t>
+  </si>
+  <si>
+    <t>1 string and 1 hash</t>
+  </si>
+  <si>
+    <t>2 arrays : 1 of start positions, 1 of end positions of restrictions sites. (It could be an hash).</t>
+  </si>
+  <si>
+    <t>1 array of accessions</t>
   </si>
 </sst>
 </file>
@@ -251,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -260,9 +255,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,40 +537,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="54.90625" customWidth="1"/>
-    <col min="5" max="6" width="61.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="5" max="6" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -591,283 +583,234 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/APIs.xlsx
+++ b/documentation/APIs.xlsx
@@ -188,9 +188,6 @@
     <t>SQL query on loci table retreiving DNA_sequence</t>
   </si>
   <si>
-    <t>INTRON-EXON-RESTRICTION_SITE_STRINGS</t>
-  </si>
-  <si>
     <t>Uses CHROMOSOME_LOCATION,GENE_ID,PRODUCT_NAME</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>SEARCH_RESULTS</t>
+  </si>
+  <si>
+    <t>INTRON-EXON-RESTRICTION_SITE_STRINGS?</t>
   </si>
 </sst>
 </file>
@@ -259,18 +259,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -548,7 +576,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,19 +706,19 @@
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>42</v>
@@ -803,32 +831,32 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -857,8 +885,8 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
+      <c r="A18" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
